--- a/biology/Zoologie/Allactaga_balikunica/Allactaga_balikunica.xlsx
+++ b/biology/Zoologie/Allactaga_balikunica/Allactaga_balikunica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Allactaga balikunica est une espèce de la famille des Dipodidés. Cette gerboise, présente en Mongolie et en Chine n'est pas considérée comme étant en danger par l'Union internationale pour la conservation de la nature (UICN).
 </t>
